--- a/CumulativeTestsByTypeByCounty/2022-01-03.xlsx
+++ b/CumulativeTestsByTypeByCounty/2022-01-03.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>78423</v>
+        <v>79036</v>
       </c>
       <c r="C2" s="4">
-        <v>2026</v>
+        <v>2055</v>
       </c>
       <c r="D2" s="4">
-        <v>36839</v>
+        <v>38294</v>
       </c>
       <c r="E2" s="4">
-        <v>117288</v>
+        <v>119385</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>5675</v>
+        <v>5713</v>
       </c>
       <c r="C3" s="4">
         <v>328</v>
       </c>
       <c r="D3" s="4">
-        <v>5873</v>
+        <v>6053</v>
       </c>
       <c r="E3" s="4">
-        <v>11876</v>
+        <v>12094</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>79710</v>
+        <v>80248</v>
       </c>
       <c r="C4" s="4">
-        <v>4352</v>
+        <v>4422</v>
       </c>
       <c r="D4" s="4">
-        <v>75574</v>
+        <v>77133</v>
       </c>
       <c r="E4" s="4">
-        <v>159636</v>
+        <v>161803</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>15976</v>
+        <v>16159</v>
       </c>
       <c r="C5" s="4">
-        <v>2862</v>
+        <v>2867</v>
       </c>
       <c r="D5" s="4">
-        <v>13204</v>
+        <v>13429</v>
       </c>
       <c r="E5" s="4">
-        <v>32042</v>
+        <v>32455</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,16 +1139,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>4485</v>
+        <v>4540</v>
       </c>
       <c r="C6" s="4">
-        <v>842</v>
+        <v>855</v>
       </c>
       <c r="D6" s="4">
-        <v>1662</v>
+        <v>1693</v>
       </c>
       <c r="E6" s="4">
-        <v>6989</v>
+        <v>7088</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1156,16 +1156,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>1057</v>
+        <v>1071</v>
       </c>
       <c r="C7" s="4">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D7" s="4">
-        <v>1523</v>
+        <v>1527</v>
       </c>
       <c r="E7" s="4">
-        <v>2915</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>106589</v>
+        <v>107233</v>
       </c>
       <c r="C8" s="4">
-        <v>1446</v>
+        <v>1461</v>
       </c>
       <c r="D8" s="4">
-        <v>14352</v>
+        <v>14516</v>
       </c>
       <c r="E8" s="4">
-        <v>122387</v>
+        <v>123210</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>29164</v>
+        <v>29517</v>
       </c>
       <c r="C9" s="4">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="D9" s="4">
-        <v>5534</v>
+        <v>5616</v>
       </c>
       <c r="E9" s="4">
-        <v>36550</v>
+        <v>36988</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1207,16 +1207,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>2653</v>
+        <v>2670</v>
       </c>
       <c r="C10" s="4">
         <v>94</v>
       </c>
       <c r="D10" s="4">
-        <v>1479</v>
+        <v>1756</v>
       </c>
       <c r="E10" s="4">
-        <v>4226</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>14387</v>
+        <v>14524</v>
       </c>
       <c r="C11" s="4">
-        <v>807</v>
+        <v>827</v>
       </c>
       <c r="D11" s="4">
-        <v>8414</v>
+        <v>8525</v>
       </c>
       <c r="E11" s="4">
-        <v>23608</v>
+        <v>23876</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>94599</v>
+        <v>96049</v>
       </c>
       <c r="C12" s="4">
-        <v>2433</v>
+        <v>2495</v>
       </c>
       <c r="D12" s="4">
-        <v>42385</v>
+        <v>43165</v>
       </c>
       <c r="E12" s="4">
-        <v>139417</v>
+        <v>141709</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1258,16 +1258,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>2122</v>
+        <v>2154</v>
       </c>
       <c r="C13" s="4">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="D13" s="4">
-        <v>3766</v>
+        <v>3803</v>
       </c>
       <c r="E13" s="4">
-        <v>6415</v>
+        <v>6489</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>52969</v>
+        <v>53279</v>
       </c>
       <c r="C14" s="4">
-        <v>8119</v>
+        <v>8150</v>
       </c>
       <c r="D14" s="4">
-        <v>22957</v>
+        <v>23311</v>
       </c>
       <c r="E14" s="4">
-        <v>84045</v>
+        <v>84740</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>408325</v>
+        <v>412318</v>
       </c>
       <c r="C15" s="4">
-        <v>15673</v>
+        <v>15764</v>
       </c>
       <c r="D15" s="4">
-        <v>89324</v>
+        <v>91948</v>
       </c>
       <c r="E15" s="4">
-        <v>513322</v>
+        <v>520030</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>4200263</v>
+        <v>4240719</v>
       </c>
       <c r="C16" s="4">
-        <v>74816</v>
+        <v>75723</v>
       </c>
       <c r="D16" s="4">
-        <v>609968</v>
+        <v>623481</v>
       </c>
       <c r="E16" s="4">
-        <v>4885047</v>
+        <v>4939923</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>9339</v>
+        <v>9425</v>
       </c>
       <c r="C17" s="4">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="D17" s="4">
-        <v>3509</v>
+        <v>3760</v>
       </c>
       <c r="E17" s="4">
-        <v>13355</v>
+        <v>13704</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1343,7 +1343,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="4">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C18" s="4">
         <v>12</v>
@@ -1352,7 +1352,7 @@
         <v>115</v>
       </c>
       <c r="E18" s="4">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>12248</v>
+        <v>12349</v>
       </c>
       <c r="C19" s="4">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D19" s="4">
-        <v>9053</v>
+        <v>9167</v>
       </c>
       <c r="E19" s="4">
-        <v>21887</v>
+        <v>22104</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>88710</v>
+        <v>89270</v>
       </c>
       <c r="C20" s="4">
-        <v>10577</v>
+        <v>10604</v>
       </c>
       <c r="D20" s="4">
-        <v>35389</v>
+        <v>36168</v>
       </c>
       <c r="E20" s="4">
-        <v>134676</v>
+        <v>136042</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>573346</v>
+        <v>584758</v>
       </c>
       <c r="C21" s="4">
-        <v>25836</v>
+        <v>26033</v>
       </c>
       <c r="D21" s="4">
-        <v>115490</v>
+        <v>117606</v>
       </c>
       <c r="E21" s="4">
-        <v>714672</v>
+        <v>728397</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>438160</v>
+        <v>445117</v>
       </c>
       <c r="C22" s="4">
-        <v>12697</v>
+        <v>12833</v>
       </c>
       <c r="D22" s="4">
-        <v>50610</v>
+        <v>51529</v>
       </c>
       <c r="E22" s="4">
-        <v>501467</v>
+        <v>509479</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,16 +1428,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>9345</v>
+        <v>9372</v>
       </c>
       <c r="C23" s="4">
         <v>176</v>
       </c>
       <c r="D23" s="4">
-        <v>3506</v>
+        <v>3529</v>
       </c>
       <c r="E23" s="4">
-        <v>13027</v>
+        <v>13077</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1445,16 +1445,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>1281</v>
+        <v>1316</v>
       </c>
       <c r="C24" s="4">
         <v>142</v>
       </c>
       <c r="D24" s="4">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E24" s="4">
-        <v>1615</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>25397</v>
+        <v>25443</v>
       </c>
       <c r="C25" s="4">
-        <v>1866</v>
+        <v>1870</v>
       </c>
       <c r="D25" s="4">
-        <v>6661</v>
+        <v>6689</v>
       </c>
       <c r="E25" s="4">
-        <v>33924</v>
+        <v>34002</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>26152</v>
+        <v>26399</v>
       </c>
       <c r="C26" s="4">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="D26" s="4">
-        <v>42559</v>
+        <v>42965</v>
       </c>
       <c r="E26" s="4">
-        <v>69966</v>
+        <v>70622</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>25668</v>
+        <v>25986</v>
       </c>
       <c r="C27" s="4">
-        <v>831</v>
+        <v>842</v>
       </c>
       <c r="D27" s="4">
-        <v>6925</v>
+        <v>7004</v>
       </c>
       <c r="E27" s="4">
-        <v>33424</v>
+        <v>33832</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>58504</v>
+        <v>58937</v>
       </c>
       <c r="C28" s="4">
-        <v>2330</v>
+        <v>2398</v>
       </c>
       <c r="D28" s="4">
-        <v>13949</v>
+        <v>14255</v>
       </c>
       <c r="E28" s="4">
-        <v>74783</v>
+        <v>75590</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>59231</v>
+        <v>60598</v>
       </c>
       <c r="C29" s="4">
-        <v>2188</v>
+        <v>2217</v>
       </c>
       <c r="D29" s="4">
-        <v>17512</v>
+        <v>17629</v>
       </c>
       <c r="E29" s="4">
-        <v>78931</v>
+        <v>80444</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>20465</v>
+        <v>20681</v>
       </c>
       <c r="C30" s="4">
-        <v>2198</v>
+        <v>2222</v>
       </c>
       <c r="D30" s="4">
-        <v>14028</v>
+        <v>14176</v>
       </c>
       <c r="E30" s="4">
-        <v>36691</v>
+        <v>37079</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>7101</v>
+        <v>7154</v>
       </c>
       <c r="C31" s="4">
         <v>337</v>
       </c>
       <c r="D31" s="4">
-        <v>11416</v>
+        <v>11560</v>
       </c>
       <c r="E31" s="4">
-        <v>18854</v>
+        <v>19051</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>430563</v>
+        <v>435577</v>
       </c>
       <c r="C32" s="4">
-        <v>11163</v>
+        <v>11273</v>
       </c>
       <c r="D32" s="4">
-        <v>148717</v>
+        <v>150723</v>
       </c>
       <c r="E32" s="4">
-        <v>590443</v>
+        <v>597573</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>9473</v>
+        <v>9561</v>
       </c>
       <c r="C33" s="4">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D33" s="4">
-        <v>3974</v>
+        <v>4029</v>
       </c>
       <c r="E33" s="4">
-        <v>13990</v>
+        <v>14137</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1615,16 +1615,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>2943</v>
+        <v>2976</v>
       </c>
       <c r="C34" s="4">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="D34" s="4">
-        <v>1532</v>
+        <v>1554</v>
       </c>
       <c r="E34" s="4">
-        <v>5593</v>
+        <v>5650</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>18999</v>
+        <v>19176</v>
       </c>
       <c r="C35" s="4">
-        <v>3350</v>
+        <v>3352</v>
       </c>
       <c r="D35" s="4">
-        <v>12041</v>
+        <v>12453</v>
       </c>
       <c r="E35" s="4">
-        <v>34390</v>
+        <v>34981</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1649,16 +1649,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>7702</v>
+        <v>7859</v>
       </c>
       <c r="C36" s="4">
         <v>429</v>
       </c>
       <c r="D36" s="4">
-        <v>3539</v>
+        <v>3556</v>
       </c>
       <c r="E36" s="4">
-        <v>11670</v>
+        <v>11844</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>14193</v>
+        <v>14432</v>
       </c>
       <c r="C37" s="4">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="D37" s="4">
-        <v>3492</v>
+        <v>3543</v>
       </c>
       <c r="E37" s="4">
-        <v>18586</v>
+        <v>18878</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>37548</v>
+        <v>37797</v>
       </c>
       <c r="C38" s="4">
-        <v>1252</v>
+        <v>1279</v>
       </c>
       <c r="D38" s="4">
-        <v>29318</v>
+        <v>30029</v>
       </c>
       <c r="E38" s="4">
-        <v>68118</v>
+        <v>69105</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1700,16 +1700,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>6855</v>
+        <v>7061</v>
       </c>
       <c r="C39" s="4">
         <v>475</v>
       </c>
       <c r="D39" s="4">
-        <v>6461</v>
+        <v>6527</v>
       </c>
       <c r="E39" s="4">
-        <v>13791</v>
+        <v>14063</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,16 +1717,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>6621</v>
+        <v>6729</v>
       </c>
       <c r="C40" s="4">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="D40" s="4">
-        <v>5181</v>
+        <v>5259</v>
       </c>
       <c r="E40" s="4">
-        <v>12494</v>
+        <v>12684</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1734,16 +1734,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>1664</v>
+        <v>1698</v>
       </c>
       <c r="C41" s="4">
         <v>29</v>
       </c>
       <c r="D41" s="4">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="E41" s="4">
-        <v>2137</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1751,16 +1751,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>2941</v>
+        <v>2958</v>
       </c>
       <c r="C42" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D42" s="4">
-        <v>3368</v>
+        <v>3414</v>
       </c>
       <c r="E42" s="4">
-        <v>6368</v>
+        <v>6432</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1768,16 +1768,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>4485</v>
+        <v>4535</v>
       </c>
       <c r="C43" s="4">
         <v>173</v>
       </c>
       <c r="D43" s="4">
-        <v>5057</v>
+        <v>5091</v>
       </c>
       <c r="E43" s="4">
-        <v>9715</v>
+        <v>9799</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>1576480</v>
+        <v>1599634</v>
       </c>
       <c r="C44" s="4">
-        <v>110210</v>
+        <v>111138</v>
       </c>
       <c r="D44" s="4">
-        <v>299300</v>
+        <v>309416</v>
       </c>
       <c r="E44" s="4">
-        <v>1985990</v>
+        <v>2020188</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1802,16 +1802,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>1902</v>
+        <v>1928</v>
       </c>
       <c r="C45" s="4">
         <v>141</v>
       </c>
       <c r="D45" s="4">
-        <v>2832</v>
+        <v>2838</v>
       </c>
       <c r="E45" s="4">
-        <v>4875</v>
+        <v>4907</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>18703</v>
+        <v>18936</v>
       </c>
       <c r="C46" s="4">
-        <v>1205</v>
+        <v>1213</v>
       </c>
       <c r="D46" s="4">
-        <v>9579</v>
+        <v>9662</v>
       </c>
       <c r="E46" s="4">
-        <v>29487</v>
+        <v>29811</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>187515</v>
+        <v>190219</v>
       </c>
       <c r="C47" s="4">
-        <v>12375</v>
+        <v>12590</v>
       </c>
       <c r="D47" s="4">
-        <v>51903</v>
+        <v>52717</v>
       </c>
       <c r="E47" s="4">
-        <v>251793</v>
+        <v>255526</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>10944</v>
+        <v>11036</v>
       </c>
       <c r="C48" s="4">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D48" s="4">
-        <v>5896</v>
+        <v>6048</v>
       </c>
       <c r="E48" s="4">
-        <v>17214</v>
+        <v>17461</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1870,16 +1870,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>2298</v>
+        <v>2305</v>
       </c>
       <c r="C49" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D49" s="4">
-        <v>4151</v>
+        <v>4249</v>
       </c>
       <c r="E49" s="4">
-        <v>6484</v>
+        <v>6591</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>32333</v>
+        <v>32580</v>
       </c>
       <c r="C50" s="4">
-        <v>2235</v>
+        <v>2267</v>
       </c>
       <c r="D50" s="4">
-        <v>12268</v>
+        <v>12446</v>
       </c>
       <c r="E50" s="4">
-        <v>46836</v>
+        <v>47293</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>135186</v>
+        <v>135846</v>
       </c>
       <c r="C51" s="4">
-        <v>2453</v>
+        <v>2460</v>
       </c>
       <c r="D51" s="4">
-        <v>26016</v>
+        <v>26454</v>
       </c>
       <c r="E51" s="4">
-        <v>163655</v>
+        <v>164760</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1921,16 +1921,16 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>1249</v>
+        <v>1274</v>
       </c>
       <c r="C52" s="4">
         <v>75</v>
       </c>
       <c r="D52" s="4">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="E52" s="4">
-        <v>2375</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1938,16 +1938,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>4949</v>
+        <v>4963</v>
       </c>
       <c r="C53" s="4">
         <v>96</v>
       </c>
       <c r="D53" s="4">
-        <v>3960</v>
+        <v>4090</v>
       </c>
       <c r="E53" s="4">
-        <v>9005</v>
+        <v>9149</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1955,16 +1955,16 @@
         <v>57</v>
       </c>
       <c r="B54" s="4">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="C54" s="4">
         <v>27</v>
       </c>
       <c r="D54" s="4">
-        <v>4436</v>
+        <v>4580</v>
       </c>
       <c r="E54" s="4">
-        <v>5647</v>
+        <v>5794</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1972,16 +1972,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>3667</v>
+        <v>3717</v>
       </c>
       <c r="C55" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D55" s="4">
-        <v>3619</v>
+        <v>3704</v>
       </c>
       <c r="E55" s="4">
-        <v>7361</v>
+        <v>7497</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1989,16 +1989,16 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>2834</v>
+        <v>2859</v>
       </c>
       <c r="C56" s="4">
         <v>41</v>
       </c>
       <c r="D56" s="4">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="E56" s="4">
-        <v>3284</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2006,16 +2006,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>3804</v>
+        <v>3825</v>
       </c>
       <c r="C57" s="4">
         <v>573</v>
       </c>
       <c r="D57" s="4">
-        <v>3692</v>
+        <v>3766</v>
       </c>
       <c r="E57" s="4">
-        <v>8069</v>
+        <v>8164</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>3825709</v>
+        <v>3875560</v>
       </c>
       <c r="C58" s="4">
-        <v>165629</v>
+        <v>166661</v>
       </c>
       <c r="D58" s="4">
-        <v>596729</v>
+        <v>612012</v>
       </c>
       <c r="E58" s="4">
-        <v>4588067</v>
+        <v>4654233</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2040,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>11812</v>
+        <v>11852</v>
       </c>
       <c r="C59" s="4">
-        <v>583</v>
+        <v>599</v>
       </c>
       <c r="D59" s="4">
-        <v>5285</v>
+        <v>5384</v>
       </c>
       <c r="E59" s="4">
-        <v>17680</v>
+        <v>17835</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>15141</v>
+        <v>15348</v>
       </c>
       <c r="C60" s="4">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="D60" s="4">
-        <v>7204</v>
+        <v>7295</v>
       </c>
       <c r="E60" s="4">
-        <v>22946</v>
+        <v>23264</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,16 +2074,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>7727</v>
+        <v>7815</v>
       </c>
       <c r="C61" s="4">
         <v>1244</v>
       </c>
       <c r="D61" s="4">
-        <v>5851</v>
+        <v>5975</v>
       </c>
       <c r="E61" s="4">
-        <v>14822</v>
+        <v>15034</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>3051</v>
+        <v>3087</v>
       </c>
       <c r="C62" s="4">
         <v>261</v>
       </c>
       <c r="D62" s="4">
-        <v>2845</v>
+        <v>2908</v>
       </c>
       <c r="E62" s="4">
-        <v>6157</v>
+        <v>6256</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>940902</v>
+        <v>953305</v>
       </c>
       <c r="C63" s="4">
-        <v>81038</v>
+        <v>81610</v>
       </c>
       <c r="D63" s="4">
-        <v>249420</v>
+        <v>254242</v>
       </c>
       <c r="E63" s="4">
-        <v>1271360</v>
+        <v>1289157</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2125,16 +2125,16 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>843</v>
+        <v>864</v>
       </c>
       <c r="C64" s="4">
         <v>22</v>
       </c>
       <c r="D64" s="4">
-        <v>1012</v>
+        <v>1027</v>
       </c>
       <c r="E64" s="4">
-        <v>1877</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2142,16 +2142,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>28158</v>
+        <v>28834</v>
       </c>
       <c r="C65" s="4">
         <v>131</v>
       </c>
       <c r="D65" s="4">
-        <v>42346</v>
+        <v>42540</v>
       </c>
       <c r="E65" s="4">
-        <v>70635</v>
+        <v>71505</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2159,16 +2159,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>2038</v>
+        <v>2061</v>
       </c>
       <c r="C66" s="4">
         <v>499</v>
       </c>
       <c r="D66" s="4">
-        <v>2273</v>
+        <v>2296</v>
       </c>
       <c r="E66" s="4">
-        <v>4810</v>
+        <v>4856</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>23868</v>
+        <v>23984</v>
       </c>
       <c r="C67" s="4">
-        <v>3398</v>
+        <v>3402</v>
       </c>
       <c r="D67" s="4">
-        <v>11838</v>
+        <v>11908</v>
       </c>
       <c r="E67" s="4">
-        <v>39104</v>
+        <v>39294</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>7537</v>
+        <v>7612</v>
       </c>
       <c r="C68" s="4">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="D68" s="4">
-        <v>8892</v>
+        <v>9034</v>
       </c>
       <c r="E68" s="4">
-        <v>16946</v>
+        <v>17166</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>92381</v>
+        <v>93708</v>
       </c>
       <c r="C69" s="4">
-        <v>6378</v>
+        <v>6413</v>
       </c>
       <c r="D69" s="4">
-        <v>60555</v>
+        <v>62575</v>
       </c>
       <c r="E69" s="4">
-        <v>159314</v>
+        <v>162696</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2227,16 +2227,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1433</v>
+        <v>1447</v>
       </c>
       <c r="C70" s="4">
         <v>42</v>
       </c>
       <c r="D70" s="4">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="E70" s="4">
-        <v>2362</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>1252291</v>
+        <v>1264295</v>
       </c>
       <c r="C71" s="4">
-        <v>22933</v>
+        <v>22994</v>
       </c>
       <c r="D71" s="4">
-        <v>609237</v>
+        <v>614764</v>
       </c>
       <c r="E71" s="4">
-        <v>1884461</v>
+        <v>1902053</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>251951</v>
+        <v>254905</v>
       </c>
       <c r="C72" s="4">
-        <v>9432</v>
+        <v>9529</v>
       </c>
       <c r="D72" s="4">
-        <v>54324</v>
+        <v>55691</v>
       </c>
       <c r="E72" s="4">
-        <v>315707</v>
+        <v>320125</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>32655</v>
+        <v>33044</v>
       </c>
       <c r="C73" s="4">
-        <v>1996</v>
+        <v>2036</v>
       </c>
       <c r="D73" s="4">
-        <v>14234</v>
+        <v>14339</v>
       </c>
       <c r="E73" s="4">
-        <v>48885</v>
+        <v>49419</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>18199</v>
+        <v>18320</v>
       </c>
       <c r="C74" s="4">
         <v>486</v>
       </c>
       <c r="D74" s="4">
-        <v>9234</v>
+        <v>9331</v>
       </c>
       <c r="E74" s="4">
-        <v>27919</v>
+        <v>28137</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>44010</v>
+        <v>44335</v>
       </c>
       <c r="C75" s="4">
-        <v>1112</v>
+        <v>1120</v>
       </c>
       <c r="D75" s="4">
-        <v>11646</v>
+        <v>11771</v>
       </c>
       <c r="E75" s="4">
-        <v>56768</v>
+        <v>57226</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>22852</v>
+        <v>23142</v>
       </c>
       <c r="C76" s="4">
-        <v>1009</v>
+        <v>1024</v>
       </c>
       <c r="D76" s="4">
-        <v>7128</v>
+        <v>7374</v>
       </c>
       <c r="E76" s="4">
-        <v>30989</v>
+        <v>31540</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2346,16 +2346,16 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1740</v>
+        <v>1746</v>
       </c>
       <c r="C77" s="4">
         <v>42</v>
       </c>
       <c r="D77" s="4">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="E77" s="4">
-        <v>2528</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2363,16 +2363,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>4779</v>
+        <v>4870</v>
       </c>
       <c r="C78" s="4">
         <v>175</v>
       </c>
       <c r="D78" s="4">
-        <v>852</v>
+        <v>865</v>
       </c>
       <c r="E78" s="4">
-        <v>5806</v>
+        <v>5910</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2380,16 +2380,16 @@
         <v>82</v>
       </c>
       <c r="B79" s="4">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C79" s="4">
         <v>139</v>
       </c>
       <c r="D79" s="4">
-        <v>1615</v>
+        <v>1636</v>
       </c>
       <c r="E79" s="4">
-        <v>2458</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>1163287</v>
+        <v>1187071</v>
       </c>
       <c r="C80" s="4">
-        <v>50419</v>
+        <v>50752</v>
       </c>
       <c r="D80" s="4">
-        <v>165774</v>
+        <v>169749</v>
       </c>
       <c r="E80" s="4">
-        <v>1379480</v>
+        <v>1407572</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>7063</v>
+        <v>7137</v>
       </c>
       <c r="C81" s="4">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="D81" s="4">
-        <v>1854</v>
+        <v>1876</v>
       </c>
       <c r="E81" s="4">
-        <v>9509</v>
+        <v>9610</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>23416</v>
+        <v>23673</v>
       </c>
       <c r="C82" s="4">
-        <v>827</v>
+        <v>838</v>
       </c>
       <c r="D82" s="4">
-        <v>19376</v>
+        <v>19745</v>
       </c>
       <c r="E82" s="4">
-        <v>43619</v>
+        <v>44256</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>32946</v>
+        <v>33264</v>
       </c>
       <c r="C83" s="4">
         <v>578</v>
       </c>
       <c r="D83" s="4">
-        <v>9774</v>
+        <v>9796</v>
       </c>
       <c r="E83" s="4">
-        <v>43298</v>
+        <v>43638</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,16 +2465,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>5231</v>
+        <v>5268</v>
       </c>
       <c r="C84" s="4">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D84" s="4">
-        <v>2113</v>
+        <v>2149</v>
       </c>
       <c r="E84" s="4">
-        <v>7648</v>
+        <v>7722</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>613017</v>
+        <v>625106</v>
       </c>
       <c r="C85" s="4">
-        <v>26017</v>
+        <v>26164</v>
       </c>
       <c r="D85" s="4">
-        <v>95371</v>
+        <v>98641</v>
       </c>
       <c r="E85" s="4">
-        <v>734405</v>
+        <v>749911</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2499,16 +2499,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>4010</v>
+        <v>4063</v>
       </c>
       <c r="C86" s="4">
         <v>72</v>
       </c>
       <c r="D86" s="4">
-        <v>1822</v>
+        <v>1833</v>
       </c>
       <c r="E86" s="4">
-        <v>5904</v>
+        <v>5968</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>21785</v>
+        <v>21962</v>
       </c>
       <c r="C87" s="4">
-        <v>1007</v>
+        <v>1026</v>
       </c>
       <c r="D87" s="4">
-        <v>10773</v>
+        <v>10968</v>
       </c>
       <c r="E87" s="4">
-        <v>33565</v>
+        <v>33956</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2533,16 +2533,16 @@
         <v>91</v>
       </c>
       <c r="B88" s="4">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C88" s="4">
         <v>53</v>
       </c>
       <c r="D88" s="4">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E88" s="4">
-        <v>490</v>
+        <v>498</v>
       </c>
     </row>
     <row r="89" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>4645</v>
+        <v>4692</v>
       </c>
       <c r="C89" s="4">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D89" s="4">
-        <v>3775</v>
+        <v>3792</v>
       </c>
       <c r="E89" s="4">
-        <v>8764</v>
+        <v>8833</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>17213</v>
+        <v>17350</v>
       </c>
       <c r="C90" s="4">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D90" s="4">
-        <v>10409</v>
+        <v>10528</v>
       </c>
       <c r="E90" s="4">
-        <v>28140</v>
+        <v>28398</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>13244</v>
+        <v>13359</v>
       </c>
       <c r="C91" s="4">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="D91" s="4">
-        <v>10883</v>
+        <v>11046</v>
       </c>
       <c r="E91" s="4">
-        <v>25416</v>
+        <v>25697</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>165750</v>
+        <v>167770</v>
       </c>
       <c r="C92" s="4">
-        <v>6080</v>
+        <v>6129</v>
       </c>
       <c r="D92" s="4">
-        <v>45909</v>
+        <v>46846</v>
       </c>
       <c r="E92" s="4">
-        <v>217739</v>
+        <v>220745</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>79460</v>
+        <v>80208</v>
       </c>
       <c r="C93" s="4">
-        <v>12146</v>
+        <v>12209</v>
       </c>
       <c r="D93" s="4">
-        <v>43748</v>
+        <v>44511</v>
       </c>
       <c r="E93" s="4">
-        <v>135354</v>
+        <v>136928</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>56534</v>
+        <v>57083</v>
       </c>
       <c r="C94" s="4">
-        <v>1466</v>
+        <v>1479</v>
       </c>
       <c r="D94" s="4">
-        <v>13568</v>
+        <v>13891</v>
       </c>
       <c r="E94" s="4">
-        <v>71568</v>
+        <v>72453</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>148597</v>
+        <v>150105</v>
       </c>
       <c r="C95" s="4">
-        <v>6026</v>
+        <v>6130</v>
       </c>
       <c r="D95" s="4">
-        <v>46103</v>
+        <v>46991</v>
       </c>
       <c r="E95" s="4">
-        <v>200726</v>
+        <v>203226</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>30931</v>
+        <v>31401</v>
       </c>
       <c r="C96" s="4">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="D96" s="4">
-        <v>7993</v>
+        <v>8231</v>
       </c>
       <c r="E96" s="4">
-        <v>39452</v>
+        <v>40165</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2686,16 +2686,16 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>2109</v>
+        <v>2188</v>
       </c>
       <c r="C97" s="4">
         <v>80</v>
       </c>
       <c r="D97" s="4">
-        <v>3005</v>
+        <v>3069</v>
       </c>
       <c r="E97" s="4">
-        <v>5194</v>
+        <v>5337</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2703,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>10692</v>
+        <v>10929</v>
       </c>
       <c r="C98" s="4">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="D98" s="4">
-        <v>3909</v>
+        <v>3949</v>
       </c>
       <c r="E98" s="4">
-        <v>15060</v>
+        <v>15343</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2720,16 +2720,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>1956</v>
+        <v>1973</v>
       </c>
       <c r="C99" s="4">
-        <v>820</v>
+        <v>841</v>
       </c>
       <c r="D99" s="4">
-        <v>3426</v>
+        <v>3453</v>
       </c>
       <c r="E99" s="4">
-        <v>6202</v>
+        <v>6267</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2737,16 +2737,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>2448</v>
+        <v>2475</v>
       </c>
       <c r="C100" s="4">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D100" s="4">
-        <v>3264</v>
+        <v>3315</v>
       </c>
       <c r="E100" s="4">
-        <v>6028</v>
+        <v>6108</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>41390</v>
+        <v>42162</v>
       </c>
       <c r="C101" s="4">
-        <v>4414</v>
+        <v>4450</v>
       </c>
       <c r="D101" s="4">
-        <v>23986</v>
+        <v>24328</v>
       </c>
       <c r="E101" s="4">
-        <v>69790</v>
+        <v>70940</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>7103456</v>
+        <v>7240802</v>
       </c>
       <c r="C102" s="4">
-        <v>274876</v>
+        <v>276248</v>
       </c>
       <c r="D102" s="4">
-        <v>1055978</v>
+        <v>1078778</v>
       </c>
       <c r="E102" s="4">
-        <v>8434310</v>
+        <v>8595828</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>83646</v>
+        <v>84269</v>
       </c>
       <c r="C103" s="4">
-        <v>9220</v>
+        <v>9257</v>
       </c>
       <c r="D103" s="4">
-        <v>30126</v>
+        <v>30788</v>
       </c>
       <c r="E103" s="4">
-        <v>122992</v>
+        <v>124314</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2805,16 +2805,16 @@
         <v>107</v>
       </c>
       <c r="B104" s="4">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C104" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D104" s="4">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E104" s="4">
-        <v>551</v>
+        <v>556</v>
       </c>
     </row>
     <row r="105" ht="14" customHeight="1">
@@ -2822,16 +2822,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>1889</v>
+        <v>1913</v>
       </c>
       <c r="C105" s="4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D105" s="4">
-        <v>3239</v>
+        <v>3358</v>
       </c>
       <c r="E105" s="4">
-        <v>5172</v>
+        <v>5317</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>437193</v>
+        <v>445258</v>
       </c>
       <c r="C106" s="4">
-        <v>16545</v>
+        <v>16806</v>
       </c>
       <c r="D106" s="4">
-        <v>58036</v>
+        <v>58732</v>
       </c>
       <c r="E106" s="4">
-        <v>511774</v>
+        <v>520796</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2856,16 +2856,16 @@
         <v>110</v>
       </c>
       <c r="B107" s="4">
-        <v>1253</v>
+        <v>1283</v>
       </c>
       <c r="C107" s="4">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D107" s="4">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="E107" s="4">
-        <v>2289</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>47138</v>
+        <v>47696</v>
       </c>
       <c r="C108" s="4">
-        <v>3200</v>
+        <v>3230</v>
       </c>
       <c r="D108" s="4">
-        <v>28122</v>
+        <v>28468</v>
       </c>
       <c r="E108" s="4">
-        <v>78460</v>
+        <v>79394</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>788721</v>
+        <v>801237</v>
       </c>
       <c r="C109" s="4">
-        <v>21175</v>
+        <v>21358</v>
       </c>
       <c r="D109" s="4">
-        <v>395608</v>
+        <v>398178</v>
       </c>
       <c r="E109" s="4">
-        <v>1205504</v>
+        <v>1220773</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>41391</v>
+        <v>41627</v>
       </c>
       <c r="C110" s="4">
-        <v>1260</v>
+        <v>1282</v>
       </c>
       <c r="D110" s="4">
-        <v>17680</v>
+        <v>18236</v>
       </c>
       <c r="E110" s="4">
-        <v>60331</v>
+        <v>61145</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>16870</v>
+        <v>17340</v>
       </c>
       <c r="C111" s="4">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D111" s="4">
-        <v>6206</v>
+        <v>6264</v>
       </c>
       <c r="E111" s="4">
-        <v>23333</v>
+        <v>23862</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>54351</v>
+        <v>55025</v>
       </c>
       <c r="C112" s="4">
-        <v>3231</v>
+        <v>3258</v>
       </c>
       <c r="D112" s="4">
-        <v>42987</v>
+        <v>43369</v>
       </c>
       <c r="E112" s="4">
-        <v>100569</v>
+        <v>101652</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>27115</v>
+        <v>27339</v>
       </c>
       <c r="C113" s="4">
-        <v>2126</v>
+        <v>2135</v>
       </c>
       <c r="D113" s="4">
-        <v>13898</v>
+        <v>14266</v>
       </c>
       <c r="E113" s="4">
-        <v>43139</v>
+        <v>43740</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>20943</v>
+        <v>21050</v>
       </c>
       <c r="C114" s="4">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="D114" s="4">
-        <v>10459</v>
+        <v>10827</v>
       </c>
       <c r="E114" s="4">
-        <v>32088</v>
+        <v>32565</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>22609</v>
+        <v>22708</v>
       </c>
       <c r="C115" s="4">
-        <v>927</v>
+        <v>932</v>
       </c>
       <c r="D115" s="4">
-        <v>17046</v>
+        <v>17159</v>
       </c>
       <c r="E115" s="4">
-        <v>40582</v>
+        <v>40799</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,16 +3009,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>3341</v>
+        <v>3374</v>
       </c>
       <c r="C116" s="4">
         <v>50</v>
       </c>
       <c r="D116" s="4">
-        <v>1747</v>
+        <v>1751</v>
       </c>
       <c r="E116" s="4">
-        <v>5138</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>127449</v>
+        <v>128902</v>
       </c>
       <c r="C117" s="4">
-        <v>5112</v>
+        <v>5154</v>
       </c>
       <c r="D117" s="4">
-        <v>44642</v>
+        <v>45813</v>
       </c>
       <c r="E117" s="4">
-        <v>177203</v>
+        <v>179869</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>13144</v>
+        <v>13239</v>
       </c>
       <c r="C118" s="4">
-        <v>1808</v>
+        <v>1820</v>
       </c>
       <c r="D118" s="4">
-        <v>10265</v>
+        <v>10318</v>
       </c>
       <c r="E118" s="4">
-        <v>25217</v>
+        <v>25377</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3060,16 +3060,16 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C119" s="4">
         <v>25</v>
       </c>
       <c r="D119" s="4">
-        <v>771</v>
+        <v>814</v>
       </c>
       <c r="E119" s="4">
-        <v>1319</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3077,16 +3077,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>4832</v>
+        <v>4969</v>
       </c>
       <c r="C120" s="4">
         <v>279</v>
       </c>
       <c r="D120" s="4">
-        <v>1872</v>
+        <v>1896</v>
       </c>
       <c r="E120" s="4">
-        <v>6983</v>
+        <v>7144</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>10786</v>
+        <v>10893</v>
       </c>
       <c r="C121" s="4">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="D121" s="4">
-        <v>5478</v>
+        <v>5562</v>
       </c>
       <c r="E121" s="4">
-        <v>16795</v>
+        <v>16996</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>27246</v>
+        <v>27627</v>
       </c>
       <c r="C122" s="4">
-        <v>3074</v>
+        <v>3093</v>
       </c>
       <c r="D122" s="4">
-        <v>14931</v>
+        <v>15222</v>
       </c>
       <c r="E122" s="4">
-        <v>45251</v>
+        <v>45942</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3128,16 +3128,16 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>1980</v>
+        <v>1985</v>
       </c>
       <c r="C123" s="4">
         <v>56</v>
       </c>
       <c r="D123" s="4">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="E123" s="4">
-        <v>2407</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>233518</v>
+        <v>236723</v>
       </c>
       <c r="C124" s="4">
-        <v>16230</v>
+        <v>16349</v>
       </c>
       <c r="D124" s="4">
-        <v>99411</v>
+        <v>101059</v>
       </c>
       <c r="E124" s="4">
-        <v>349159</v>
+        <v>354131</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>15014</v>
+        <v>15030</v>
       </c>
       <c r="C125" s="4">
         <v>766</v>
       </c>
       <c r="D125" s="4">
-        <v>14918</v>
+        <v>14929</v>
       </c>
       <c r="E125" s="4">
-        <v>30698</v>
+        <v>30725</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>77279</v>
+        <v>77811</v>
       </c>
       <c r="C126" s="4">
-        <v>10961</v>
+        <v>10980</v>
       </c>
       <c r="D126" s="4">
-        <v>34205</v>
+        <v>34493</v>
       </c>
       <c r="E126" s="4">
-        <v>122445</v>
+        <v>123284</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>191204</v>
+        <v>193504</v>
       </c>
       <c r="C127" s="4">
-        <v>9089</v>
+        <v>9165</v>
       </c>
       <c r="D127" s="4">
-        <v>47148</v>
+        <v>48010</v>
       </c>
       <c r="E127" s="4">
-        <v>247441</v>
+        <v>250679</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>10886</v>
+        <v>11053</v>
       </c>
       <c r="C128" s="4">
         <v>244</v>
       </c>
       <c r="D128" s="4">
-        <v>8788</v>
+        <v>8956</v>
       </c>
       <c r="E128" s="4">
-        <v>19918</v>
+        <v>20253</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>21785</v>
+        <v>21864</v>
       </c>
       <c r="C129" s="4">
         <v>576</v>
       </c>
       <c r="D129" s="4">
-        <v>12661</v>
+        <v>12766</v>
       </c>
       <c r="E129" s="4">
-        <v>35022</v>
+        <v>35206</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>170518</v>
+        <v>172582</v>
       </c>
       <c r="C130" s="4">
-        <v>7127</v>
+        <v>7181</v>
       </c>
       <c r="D130" s="4">
-        <v>52015</v>
+        <v>52703</v>
       </c>
       <c r="E130" s="4">
-        <v>229660</v>
+        <v>232466</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>42522</v>
+        <v>42933</v>
       </c>
       <c r="C131" s="4">
-        <v>2806</v>
+        <v>2858</v>
       </c>
       <c r="D131" s="4">
-        <v>21039</v>
+        <v>21377</v>
       </c>
       <c r="E131" s="4">
-        <v>66367</v>
+        <v>67168</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3281,16 +3281,16 @@
         <v>135</v>
       </c>
       <c r="B132" s="4">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C132" s="4">
         <v>52</v>
       </c>
       <c r="D132" s="4">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E132" s="4">
-        <v>411</v>
+        <v>416</v>
       </c>
     </row>
     <row r="133" ht="14" customHeight="1">
@@ -3298,16 +3298,16 @@
         <v>136</v>
       </c>
       <c r="B133" s="4">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C133" s="4">
         <v>0</v>
       </c>
       <c r="D133" s="4">
-        <v>1642</v>
+        <v>1733</v>
       </c>
       <c r="E133" s="4">
-        <v>1956</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>45938</v>
+        <v>46226</v>
       </c>
       <c r="C134" s="4">
-        <v>1967</v>
+        <v>2017</v>
       </c>
       <c r="D134" s="4">
-        <v>43583</v>
+        <v>44200</v>
       </c>
       <c r="E134" s="4">
-        <v>91488</v>
+        <v>92443</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3332,16 +3332,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>2260</v>
+        <v>2270</v>
       </c>
       <c r="C135" s="4">
         <v>72</v>
       </c>
       <c r="D135" s="4">
-        <v>1284</v>
+        <v>1318</v>
       </c>
       <c r="E135" s="4">
-        <v>3616</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3349,7 +3349,7 @@
         <v>139</v>
       </c>
       <c r="B136" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C136" s="4">
         <v>7</v>
@@ -3358,7 +3358,7 @@
         <v>47</v>
       </c>
       <c r="E136" s="4">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="137" ht="14" customHeight="1">
@@ -3366,16 +3366,16 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>3233</v>
+        <v>3260</v>
       </c>
       <c r="C137" s="4">
         <v>58</v>
       </c>
       <c r="D137" s="4">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="E137" s="4">
-        <v>4083</v>
+        <v>4117</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>38177</v>
+        <v>38383</v>
       </c>
       <c r="C138" s="4">
-        <v>5467</v>
+        <v>5472</v>
       </c>
       <c r="D138" s="4">
-        <v>17203</v>
+        <v>17506</v>
       </c>
       <c r="E138" s="4">
-        <v>60847</v>
+        <v>61361</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3400,16 +3400,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="4">
-        <v>1152</v>
+        <v>1178</v>
       </c>
       <c r="C139" s="4">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D139" s="4">
-        <v>5823</v>
+        <v>5989</v>
       </c>
       <c r="E139" s="4">
-        <v>7034</v>
+        <v>7227</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3417,16 +3417,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>11714</v>
+        <v>12319</v>
       </c>
       <c r="C140" s="4">
         <v>327</v>
       </c>
       <c r="D140" s="4">
-        <v>4240</v>
+        <v>4927</v>
       </c>
       <c r="E140" s="4">
-        <v>16281</v>
+        <v>17573</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>30651</v>
+        <v>30913</v>
       </c>
       <c r="C141" s="4">
-        <v>2951</v>
+        <v>2965</v>
       </c>
       <c r="D141" s="4">
-        <v>18995</v>
+        <v>19468</v>
       </c>
       <c r="E141" s="4">
-        <v>52597</v>
+        <v>53346</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,16 +3451,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>8845</v>
+        <v>8942</v>
       </c>
       <c r="C142" s="4">
         <v>181</v>
       </c>
       <c r="D142" s="4">
-        <v>9175</v>
+        <v>9365</v>
       </c>
       <c r="E142" s="4">
-        <v>18201</v>
+        <v>18488</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>28633</v>
+        <v>28966</v>
       </c>
       <c r="C143" s="4">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="D143" s="4">
-        <v>7896</v>
+        <v>7971</v>
       </c>
       <c r="E143" s="4">
-        <v>37307</v>
+        <v>37718</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>18389</v>
+        <v>18574</v>
       </c>
       <c r="C144" s="4">
-        <v>1310</v>
+        <v>1339</v>
       </c>
       <c r="D144" s="4">
-        <v>12821</v>
+        <v>13680</v>
       </c>
       <c r="E144" s="4">
-        <v>32520</v>
+        <v>33593</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>12778</v>
+        <v>12995</v>
       </c>
       <c r="C145" s="4">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="D145" s="4">
-        <v>6289</v>
+        <v>6467</v>
       </c>
       <c r="E145" s="4">
-        <v>19522</v>
+        <v>19922</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>16275</v>
+        <v>16499</v>
       </c>
       <c r="C146" s="4">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="D146" s="4">
-        <v>6971</v>
+        <v>7106</v>
       </c>
       <c r="E146" s="4">
-        <v>24082</v>
+        <v>24443</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>89971</v>
+        <v>90974</v>
       </c>
       <c r="C147" s="4">
-        <v>4710</v>
+        <v>4723</v>
       </c>
       <c r="D147" s="4">
-        <v>23795</v>
+        <v>24471</v>
       </c>
       <c r="E147" s="4">
-        <v>118476</v>
+        <v>120168</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>39032</v>
+        <v>39240</v>
       </c>
       <c r="C148" s="4">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="D148" s="4">
-        <v>34962</v>
+        <v>35479</v>
       </c>
       <c r="E148" s="4">
-        <v>74773</v>
+        <v>75502</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3570,16 +3570,16 @@
         <v>152</v>
       </c>
       <c r="B149" s="4">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="C149" s="4">
         <v>296</v>
       </c>
       <c r="D149" s="4">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="E149" s="4">
-        <v>1580</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>9244</v>
+        <v>9280</v>
       </c>
       <c r="C150" s="4">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="D150" s="4">
-        <v>6273</v>
+        <v>6546</v>
       </c>
       <c r="E150" s="4">
-        <v>16837</v>
+        <v>17148</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>18537</v>
+        <v>18666</v>
       </c>
       <c r="C151" s="4">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="D151" s="4">
-        <v>4642</v>
+        <v>4734</v>
       </c>
       <c r="E151" s="4">
-        <v>23803</v>
+        <v>24033</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3621,16 +3621,16 @@
         <v>155</v>
       </c>
       <c r="B152" s="4">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="C152" s="4">
         <v>5</v>
       </c>
       <c r="D152" s="4">
-        <v>5644</v>
+        <v>6585</v>
       </c>
       <c r="E152" s="4">
-        <v>5811</v>
+        <v>6792</v>
       </c>
     </row>
     <row r="153" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>328440</v>
+        <v>334459</v>
       </c>
       <c r="C153" s="4">
-        <v>11798</v>
+        <v>12008</v>
       </c>
       <c r="D153" s="4">
-        <v>165818</v>
+        <v>168950</v>
       </c>
       <c r="E153" s="4">
-        <v>506056</v>
+        <v>515417</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,16 +3655,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>4184</v>
+        <v>4221</v>
       </c>
       <c r="C154" s="4">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D154" s="4">
-        <v>4078</v>
+        <v>4104</v>
       </c>
       <c r="E154" s="4">
-        <v>8438</v>
+        <v>8505</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,16 +3672,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>19466</v>
+        <v>19598</v>
       </c>
       <c r="C155" s="4">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D155" s="4">
-        <v>5856</v>
+        <v>6249</v>
       </c>
       <c r="E155" s="4">
-        <v>25732</v>
+        <v>26259</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>4006</v>
+        <v>4032</v>
       </c>
       <c r="C156" s="4">
         <v>866</v>
       </c>
       <c r="D156" s="4">
-        <v>3673</v>
+        <v>3723</v>
       </c>
       <c r="E156" s="4">
-        <v>8545</v>
+        <v>8621</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3706,16 +3706,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>1824</v>
+        <v>1831</v>
       </c>
       <c r="C157" s="4">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="D157" s="4">
-        <v>1374</v>
+        <v>1381</v>
       </c>
       <c r="E157" s="4">
-        <v>3455</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3723,16 +3723,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>2505</v>
+        <v>2521</v>
       </c>
       <c r="C158" s="4">
         <v>116</v>
       </c>
       <c r="D158" s="4">
-        <v>1778</v>
+        <v>1825</v>
       </c>
       <c r="E158" s="4">
-        <v>4399</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>48004</v>
+        <v>48654</v>
       </c>
       <c r="C159" s="4">
-        <v>1971</v>
+        <v>1980</v>
       </c>
       <c r="D159" s="4">
-        <v>7583</v>
+        <v>7638</v>
       </c>
       <c r="E159" s="4">
-        <v>57558</v>
+        <v>58272</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>86032</v>
+        <v>87629</v>
       </c>
       <c r="C160" s="4">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D160" s="4">
-        <v>25056</v>
+        <v>25730</v>
       </c>
       <c r="E160" s="4">
-        <v>111606</v>
+        <v>113879</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3774,16 +3774,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>3583</v>
+        <v>3636</v>
       </c>
       <c r="C161" s="4">
         <v>93</v>
       </c>
       <c r="D161" s="4">
-        <v>3922</v>
+        <v>3983</v>
       </c>
       <c r="E161" s="4">
-        <v>7598</v>
+        <v>7712</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>409540</v>
+        <v>412232</v>
       </c>
       <c r="C162" s="4">
-        <v>13010</v>
+        <v>13140</v>
       </c>
       <c r="D162" s="4">
-        <v>145457</v>
+        <v>147701</v>
       </c>
       <c r="E162" s="4">
-        <v>568007</v>
+        <v>573073</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3808,16 +3808,16 @@
         <v>166</v>
       </c>
       <c r="B163" s="4">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="C163" s="4">
         <v>63</v>
       </c>
       <c r="D163" s="4">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E163" s="4">
-        <v>794</v>
+        <v>800</v>
       </c>
     </row>
     <row r="164" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>49238</v>
+        <v>49699</v>
       </c>
       <c r="C164" s="4">
-        <v>1688</v>
+        <v>1696</v>
       </c>
       <c r="D164" s="4">
-        <v>14511</v>
+        <v>14988</v>
       </c>
       <c r="E164" s="4">
-        <v>65437</v>
+        <v>66383</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3842,16 +3842,16 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>2410</v>
+        <v>2417</v>
       </c>
       <c r="C165" s="4">
         <v>28</v>
       </c>
       <c r="D165" s="4">
-        <v>1979</v>
+        <v>1993</v>
       </c>
       <c r="E165" s="4">
-        <v>4417</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>80576</v>
+        <v>81587</v>
       </c>
       <c r="C166" s="4">
-        <v>10935</v>
+        <v>11052</v>
       </c>
       <c r="D166" s="4">
-        <v>82957</v>
+        <v>84105</v>
       </c>
       <c r="E166" s="4">
-        <v>174468</v>
+        <v>176744</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>25149</v>
+        <v>25333</v>
       </c>
       <c r="C167" s="4">
-        <v>1297</v>
+        <v>1317</v>
       </c>
       <c r="D167" s="4">
-        <v>12858</v>
+        <v>13014</v>
       </c>
       <c r="E167" s="4">
-        <v>39304</v>
+        <v>39664</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,16 +3893,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>8233</v>
+        <v>8298</v>
       </c>
       <c r="C168" s="4">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D168" s="4">
-        <v>2715</v>
+        <v>2723</v>
       </c>
       <c r="E168" s="4">
-        <v>11081</v>
+        <v>11156</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3910,16 +3910,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>8811</v>
+        <v>8854</v>
       </c>
       <c r="C169" s="4">
         <v>84</v>
       </c>
       <c r="D169" s="4">
-        <v>6696</v>
+        <v>6848</v>
       </c>
       <c r="E169" s="4">
-        <v>15591</v>
+        <v>15786</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>18009</v>
+        <v>18240</v>
       </c>
       <c r="C170" s="4">
-        <v>1277</v>
+        <v>1282</v>
       </c>
       <c r="D170" s="4">
-        <v>9314</v>
+        <v>9357</v>
       </c>
       <c r="E170" s="4">
-        <v>28600</v>
+        <v>28879</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>678807</v>
+        <v>690733</v>
       </c>
       <c r="C171" s="4">
-        <v>47504</v>
+        <v>47854</v>
       </c>
       <c r="D171" s="4">
-        <v>145067</v>
+        <v>147769</v>
       </c>
       <c r="E171" s="4">
-        <v>871378</v>
+        <v>886356</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3961,16 +3961,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>10757</v>
+        <v>10795</v>
       </c>
       <c r="C172" s="4">
         <v>1242</v>
       </c>
       <c r="D172" s="4">
-        <v>6190</v>
+        <v>6273</v>
       </c>
       <c r="E172" s="4">
-        <v>18189</v>
+        <v>18310</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>9071</v>
+        <v>9188</v>
       </c>
       <c r="C173" s="4">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D173" s="4">
-        <v>8218</v>
+        <v>8287</v>
       </c>
       <c r="E173" s="4">
-        <v>18098</v>
+        <v>18286</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -3995,16 +3995,16 @@
         <v>177</v>
       </c>
       <c r="B174" s="4">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="C174" s="4">
         <v>17</v>
       </c>
       <c r="D174" s="4">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="E174" s="4">
-        <v>1168</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="175" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>62384</v>
+        <v>63103</v>
       </c>
       <c r="C175" s="4">
-        <v>4277</v>
+        <v>4322</v>
       </c>
       <c r="D175" s="4">
-        <v>21471</v>
+        <v>21631</v>
       </c>
       <c r="E175" s="4">
-        <v>88132</v>
+        <v>89056</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>40533</v>
+        <v>40701</v>
       </c>
       <c r="C176" s="4">
-        <v>2022</v>
+        <v>2039</v>
       </c>
       <c r="D176" s="4">
-        <v>30327</v>
+        <v>31134</v>
       </c>
       <c r="E176" s="4">
-        <v>72882</v>
+        <v>73874</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>6910</v>
+        <v>7008</v>
       </c>
       <c r="C177" s="4">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="D177" s="4">
-        <v>5126</v>
+        <v>5205</v>
       </c>
       <c r="E177" s="4">
-        <v>12958</v>
+        <v>13139</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4063,16 +4063,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>10092</v>
+        <v>10114</v>
       </c>
       <c r="C178" s="4">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D178" s="4">
-        <v>7430</v>
+        <v>7514</v>
       </c>
       <c r="E178" s="4">
-        <v>17753</v>
+        <v>17862</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>343615</v>
+        <v>348499</v>
       </c>
       <c r="C179" s="4">
-        <v>52609</v>
+        <v>52784</v>
       </c>
       <c r="D179" s="4">
-        <v>164330</v>
+        <v>167648</v>
       </c>
       <c r="E179" s="4">
-        <v>560554</v>
+        <v>568931</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4097,16 +4097,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>1485</v>
+        <v>1527</v>
       </c>
       <c r="C180" s="4">
         <v>407</v>
       </c>
       <c r="D180" s="4">
-        <v>1283</v>
+        <v>1301</v>
       </c>
       <c r="E180" s="4">
-        <v>3175</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4114,16 +4114,16 @@
         <v>184</v>
       </c>
       <c r="B181" s="4">
-        <v>1118</v>
+        <v>1131</v>
       </c>
       <c r="C181" s="4">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D181" s="4">
-        <v>1307</v>
+        <v>1311</v>
       </c>
       <c r="E181" s="4">
-        <v>2835</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>52199</v>
+        <v>53011</v>
       </c>
       <c r="C182" s="4">
-        <v>7054</v>
+        <v>7095</v>
       </c>
       <c r="D182" s="4">
-        <v>27464</v>
+        <v>28050</v>
       </c>
       <c r="E182" s="4">
-        <v>86717</v>
+        <v>88156</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>23949</v>
+        <v>24265</v>
       </c>
       <c r="C183" s="4">
-        <v>1106</v>
+        <v>1112</v>
       </c>
       <c r="D183" s="4">
-        <v>12801</v>
+        <v>13039</v>
       </c>
       <c r="E183" s="4">
-        <v>37856</v>
+        <v>38416</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>14493</v>
+        <v>14599</v>
       </c>
       <c r="C184" s="4">
-        <v>1325</v>
+        <v>1333</v>
       </c>
       <c r="D184" s="4">
-        <v>8580</v>
+        <v>8812</v>
       </c>
       <c r="E184" s="4">
-        <v>24398</v>
+        <v>24744</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>131079</v>
+        <v>133083</v>
       </c>
       <c r="C185" s="4">
-        <v>7766</v>
+        <v>7829</v>
       </c>
       <c r="D185" s="4">
-        <v>39053</v>
+        <v>40166</v>
       </c>
       <c r="E185" s="4">
-        <v>177898</v>
+        <v>181078</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4199,16 +4199,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>3172</v>
+        <v>3210</v>
       </c>
       <c r="C186" s="4">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D186" s="4">
-        <v>3420</v>
+        <v>3496</v>
       </c>
       <c r="E186" s="4">
-        <v>6943</v>
+        <v>7059</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>14860</v>
+        <v>14901</v>
       </c>
       <c r="C187" s="4">
         <v>164</v>
       </c>
       <c r="D187" s="4">
-        <v>3952</v>
+        <v>4150</v>
       </c>
       <c r="E187" s="4">
-        <v>18976</v>
+        <v>19215</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>55342</v>
+        <v>55828</v>
       </c>
       <c r="C188" s="4">
-        <v>2889</v>
+        <v>2906</v>
       </c>
       <c r="D188" s="4">
-        <v>21451</v>
+        <v>21766</v>
       </c>
       <c r="E188" s="4">
-        <v>79682</v>
+        <v>80500</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>114388</v>
+        <v>115350</v>
       </c>
       <c r="C189" s="4">
-        <v>9868</v>
+        <v>9928</v>
       </c>
       <c r="D189" s="4">
-        <v>44482</v>
+        <v>45504</v>
       </c>
       <c r="E189" s="4">
-        <v>168738</v>
+        <v>170782</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4267,16 +4267,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>7897</v>
+        <v>7923</v>
       </c>
       <c r="C190" s="4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D190" s="4">
-        <v>2383</v>
+        <v>2388</v>
       </c>
       <c r="E190" s="4">
-        <v>10340</v>
+        <v>10372</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>5619</v>
+        <v>5686</v>
       </c>
       <c r="C191" s="4">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="D191" s="4">
-        <v>3291</v>
+        <v>3354</v>
       </c>
       <c r="E191" s="4">
-        <v>9400</v>
+        <v>9534</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>83482</v>
+        <v>84403</v>
       </c>
       <c r="C192" s="4">
-        <v>20183</v>
+        <v>20283</v>
       </c>
       <c r="D192" s="4">
-        <v>40654</v>
+        <v>41345</v>
       </c>
       <c r="E192" s="4">
-        <v>144319</v>
+        <v>146031</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4318,16 +4318,16 @@
         <v>196</v>
       </c>
       <c r="B193" s="4">
-        <v>1192</v>
+        <v>1203</v>
       </c>
       <c r="C193" s="4">
         <v>47</v>
       </c>
       <c r="D193" s="4">
-        <v>962</v>
+        <v>1004</v>
       </c>
       <c r="E193" s="4">
-        <v>2201</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4335,16 +4335,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>2658</v>
+        <v>2674</v>
       </c>
       <c r="C194" s="4">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D194" s="4">
-        <v>1658</v>
+        <v>1671</v>
       </c>
       <c r="E194" s="4">
-        <v>4443</v>
+        <v>4475</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>8303</v>
+        <v>8377</v>
       </c>
       <c r="C195" s="4">
-        <v>738</v>
+        <v>749</v>
       </c>
       <c r="D195" s="4">
-        <v>8282</v>
+        <v>8448</v>
       </c>
       <c r="E195" s="4">
-        <v>17323</v>
+        <v>17574</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,16 +4369,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>12490</v>
+        <v>12617</v>
       </c>
       <c r="C196" s="4">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="D196" s="4">
-        <v>94098</v>
+        <v>94820</v>
       </c>
       <c r="E196" s="4">
-        <v>107104</v>
+        <v>107956</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>5673</v>
+        <v>5767</v>
       </c>
       <c r="C197" s="4">
         <v>509</v>
       </c>
       <c r="D197" s="4">
-        <v>7663</v>
+        <v>7837</v>
       </c>
       <c r="E197" s="4">
-        <v>13845</v>
+        <v>14113</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4403,16 +4403,16 @@
         <v>201</v>
       </c>
       <c r="B198" s="4">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="C198" s="4">
         <v>113</v>
       </c>
       <c r="D198" s="4">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E198" s="4">
-        <v>518</v>
+        <v>533</v>
       </c>
     </row>
     <row r="199" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>18700</v>
+        <v>18915</v>
       </c>
       <c r="C199" s="4">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="D199" s="4">
-        <v>13041</v>
+        <v>13272</v>
       </c>
       <c r="E199" s="4">
-        <v>32294</v>
+        <v>32750</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>110919</v>
+        <v>112220</v>
       </c>
       <c r="C200" s="4">
-        <v>7936</v>
+        <v>8000</v>
       </c>
       <c r="D200" s="4">
-        <v>19961</v>
+        <v>20435</v>
       </c>
       <c r="E200" s="4">
-        <v>138816</v>
+        <v>140655</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>7992</v>
+        <v>8024</v>
       </c>
       <c r="C201" s="4">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D201" s="4">
-        <v>7323</v>
+        <v>7469</v>
       </c>
       <c r="E201" s="4">
-        <v>15554</v>
+        <v>15734</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>35246</v>
+        <v>35440</v>
       </c>
       <c r="C202" s="4">
-        <v>2469</v>
+        <v>2484</v>
       </c>
       <c r="D202" s="4">
-        <v>9850</v>
+        <v>10046</v>
       </c>
       <c r="E202" s="4">
-        <v>47565</v>
+        <v>47970</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>10601</v>
+        <v>10662</v>
       </c>
       <c r="C203" s="4">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D203" s="4">
-        <v>4957</v>
+        <v>5016</v>
       </c>
       <c r="E203" s="4">
-        <v>16300</v>
+        <v>16421</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>9769</v>
+        <v>9829</v>
       </c>
       <c r="C204" s="4">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D204" s="4">
-        <v>8470</v>
+        <v>8672</v>
       </c>
       <c r="E204" s="4">
-        <v>18530</v>
+        <v>18794</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>30704</v>
+        <v>31095</v>
       </c>
       <c r="C205" s="4">
-        <v>2473</v>
+        <v>2489</v>
       </c>
       <c r="D205" s="4">
-        <v>10280</v>
+        <v>10437</v>
       </c>
       <c r="E205" s="4">
-        <v>43457</v>
+        <v>44021</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>52701</v>
+        <v>53292</v>
       </c>
       <c r="C206" s="4">
-        <v>9876</v>
+        <v>9909</v>
       </c>
       <c r="D206" s="4">
-        <v>42695</v>
+        <v>43201</v>
       </c>
       <c r="E206" s="4">
-        <v>105272</v>
+        <v>106402</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,16 +4556,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>5479</v>
+        <v>5498</v>
       </c>
       <c r="C207" s="4">
         <v>131</v>
       </c>
       <c r="D207" s="4">
-        <v>3991</v>
+        <v>4020</v>
       </c>
       <c r="E207" s="4">
-        <v>9601</v>
+        <v>9649</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4573,16 +4573,16 @@
         <v>211</v>
       </c>
       <c r="B208" s="4">
-        <v>1071</v>
+        <v>1084</v>
       </c>
       <c r="C208" s="4">
         <v>25</v>
       </c>
       <c r="D208" s="4">
-        <v>903</v>
+        <v>936</v>
       </c>
       <c r="E208" s="4">
-        <v>1999</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4590,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>27888</v>
+        <v>28330</v>
       </c>
       <c r="C209" s="4">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D209" s="4">
-        <v>3903</v>
+        <v>4120</v>
       </c>
       <c r="E209" s="4">
-        <v>32126</v>
+        <v>32790</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4607,16 +4607,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>1089</v>
+        <v>1096</v>
       </c>
       <c r="C210" s="4">
         <v>96</v>
       </c>
       <c r="D210" s="4">
-        <v>1354</v>
+        <v>1374</v>
       </c>
       <c r="E210" s="4">
-        <v>2539</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>20824</v>
+        <v>21215</v>
       </c>
       <c r="C211" s="4">
-        <v>1428</v>
+        <v>1436</v>
       </c>
       <c r="D211" s="4">
-        <v>9212</v>
+        <v>9452</v>
       </c>
       <c r="E211" s="4">
-        <v>31464</v>
+        <v>32103</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4644,13 +4644,13 @@
         <v>306</v>
       </c>
       <c r="C212" s="4">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D212" s="4">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E212" s="4">
-        <v>706</v>
+        <v>713</v>
       </c>
     </row>
     <row r="213" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>285284</v>
+        <v>287400</v>
       </c>
       <c r="C213" s="4">
-        <v>14465</v>
+        <v>14745</v>
       </c>
       <c r="D213" s="4">
-        <v>92885</v>
+        <v>95394</v>
       </c>
       <c r="E213" s="4">
-        <v>392634</v>
+        <v>397539</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>8276</v>
+        <v>8392</v>
       </c>
       <c r="C214" s="4">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="D214" s="4">
-        <v>8054</v>
+        <v>8074</v>
       </c>
       <c r="E214" s="4">
-        <v>16771</v>
+        <v>16912</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>76880</v>
+        <v>78078</v>
       </c>
       <c r="C215" s="4">
-        <v>877</v>
+        <v>885</v>
       </c>
       <c r="D215" s="4">
-        <v>36354</v>
+        <v>36531</v>
       </c>
       <c r="E215" s="4">
-        <v>114111</v>
+        <v>115494</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>5965</v>
+        <v>6000</v>
       </c>
       <c r="C216" s="4">
         <v>166</v>
       </c>
       <c r="D216" s="4">
-        <v>7055</v>
+        <v>7165</v>
       </c>
       <c r="E216" s="4">
-        <v>13186</v>
+        <v>13331</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4726,16 +4726,16 @@
         <v>220</v>
       </c>
       <c r="B217" s="4">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="C217" s="4">
         <v>23</v>
       </c>
       <c r="D217" s="4">
-        <v>956</v>
+        <v>967</v>
       </c>
       <c r="E217" s="4">
-        <v>1679</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4743,16 +4743,16 @@
         <v>221</v>
       </c>
       <c r="B218" s="4">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C218" s="4">
         <v>9</v>
       </c>
       <c r="D218" s="4">
-        <v>1331</v>
+        <v>1349</v>
       </c>
       <c r="E218" s="4">
-        <v>1524</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4760,16 +4760,16 @@
         <v>222</v>
       </c>
       <c r="B219" s="4">
-        <v>1497</v>
+        <v>1504</v>
       </c>
       <c r="C219" s="4">
         <v>47</v>
       </c>
       <c r="D219" s="4">
-        <v>1272</v>
+        <v>1307</v>
       </c>
       <c r="E219" s="4">
-        <v>2816</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4777,16 +4777,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>8392</v>
+        <v>8456</v>
       </c>
       <c r="C220" s="4">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="D220" s="4">
-        <v>2327</v>
+        <v>2370</v>
       </c>
       <c r="E220" s="4">
-        <v>11165</v>
+        <v>11282</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>2691501</v>
+        <v>2731933</v>
       </c>
       <c r="C221" s="4">
-        <v>115598</v>
+        <v>116357</v>
       </c>
       <c r="D221" s="4">
-        <v>579135</v>
+        <v>592650</v>
       </c>
       <c r="E221" s="4">
-        <v>3386234</v>
+        <v>3440940</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>115743</v>
+        <v>116383</v>
       </c>
       <c r="C222" s="4">
-        <v>4526</v>
+        <v>4568</v>
       </c>
       <c r="D222" s="4">
-        <v>140621</v>
+        <v>143599</v>
       </c>
       <c r="E222" s="4">
-        <v>260890</v>
+        <v>264550</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4828,16 +4828,16 @@
         <v>226</v>
       </c>
       <c r="B223" s="4">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C223" s="4">
         <v>12</v>
       </c>
       <c r="D223" s="4">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E223" s="4">
-        <v>797</v>
+        <v>801</v>
       </c>
     </row>
     <row r="224" ht="14" customHeight="1">
@@ -4845,16 +4845,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>5902</v>
+        <v>5953</v>
       </c>
       <c r="C224" s="4">
         <v>138</v>
       </c>
       <c r="D224" s="4">
-        <v>3943</v>
+        <v>3979</v>
       </c>
       <c r="E224" s="4">
-        <v>9983</v>
+        <v>10070</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4862,16 +4862,16 @@
         <v>228</v>
       </c>
       <c r="B225" s="4">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C225" s="4">
         <v>56</v>
       </c>
       <c r="D225" s="4">
-        <v>779</v>
+        <v>834</v>
       </c>
       <c r="E225" s="4">
-        <v>1298</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>32717</v>
+        <v>33038</v>
       </c>
       <c r="C226" s="4">
-        <v>1444</v>
+        <v>1449</v>
       </c>
       <c r="D226" s="4">
-        <v>9050</v>
+        <v>9153</v>
       </c>
       <c r="E226" s="4">
-        <v>43211</v>
+        <v>43640</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>98626</v>
+        <v>99327</v>
       </c>
       <c r="C227" s="4">
-        <v>3133</v>
+        <v>3158</v>
       </c>
       <c r="D227" s="4">
-        <v>117309</v>
+        <v>121071</v>
       </c>
       <c r="E227" s="4">
-        <v>219068</v>
+        <v>223556</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>1833192</v>
+        <v>1869443</v>
       </c>
       <c r="C228" s="4">
-        <v>80539</v>
+        <v>82559</v>
       </c>
       <c r="D228" s="4">
-        <v>432218</v>
+        <v>439962</v>
       </c>
       <c r="E228" s="4">
-        <v>2345949</v>
+        <v>2391964</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>17973</v>
+        <v>18112</v>
       </c>
       <c r="C229" s="4">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="D229" s="4">
-        <v>8205</v>
+        <v>8424</v>
       </c>
       <c r="E229" s="4">
-        <v>26784</v>
+        <v>27155</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>16263</v>
+        <v>16420</v>
       </c>
       <c r="C230" s="4">
-        <v>1105</v>
+        <v>1113</v>
       </c>
       <c r="D230" s="4">
-        <v>10615</v>
+        <v>10734</v>
       </c>
       <c r="E230" s="4">
-        <v>27983</v>
+        <v>28267</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>16114</v>
+        <v>16200</v>
       </c>
       <c r="C231" s="4">
-        <v>2505</v>
+        <v>2529</v>
       </c>
       <c r="D231" s="4">
-        <v>9472</v>
+        <v>9591</v>
       </c>
       <c r="E231" s="4">
-        <v>28091</v>
+        <v>28320</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4981,16 +4981,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>1207</v>
+        <v>1231</v>
       </c>
       <c r="C232" s="4">
         <v>101</v>
       </c>
       <c r="D232" s="4">
-        <v>4019</v>
+        <v>4131</v>
       </c>
       <c r="E232" s="4">
-        <v>5327</v>
+        <v>5463</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>39564</v>
+        <v>40272</v>
       </c>
       <c r="C233" s="4">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="D233" s="4">
-        <v>4773</v>
+        <v>4827</v>
       </c>
       <c r="E233" s="4">
-        <v>44924</v>
+        <v>45701</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>63553</v>
+        <v>64120</v>
       </c>
       <c r="C234" s="4">
         <v>1354</v>
       </c>
       <c r="D234" s="4">
-        <v>33347</v>
+        <v>33772</v>
       </c>
       <c r="E234" s="4">
-        <v>98254</v>
+        <v>99246</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>32931</v>
+        <v>33225</v>
       </c>
       <c r="C235" s="4">
-        <v>2396</v>
+        <v>2415</v>
       </c>
       <c r="D235" s="4">
-        <v>21345</v>
+        <v>21655</v>
       </c>
       <c r="E235" s="4">
-        <v>56672</v>
+        <v>57295</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>71901</v>
+        <v>72595</v>
       </c>
       <c r="C236" s="4">
-        <v>5102</v>
+        <v>5310</v>
       </c>
       <c r="D236" s="4">
-        <v>31714</v>
+        <v>32164</v>
       </c>
       <c r="E236" s="4">
-        <v>108717</v>
+        <v>110069</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>168495</v>
+        <v>169860</v>
       </c>
       <c r="C237" s="4">
-        <v>3276</v>
+        <v>3293</v>
       </c>
       <c r="D237" s="4">
-        <v>47024</v>
+        <v>48074</v>
       </c>
       <c r="E237" s="4">
-        <v>218795</v>
+        <v>221227</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>60187</v>
+        <v>60952</v>
       </c>
       <c r="C238" s="4">
-        <v>2347</v>
+        <v>2359</v>
       </c>
       <c r="D238" s="4">
-        <v>11593</v>
+        <v>11749</v>
       </c>
       <c r="E238" s="4">
-        <v>74127</v>
+        <v>75060</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,16 +5100,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>5711</v>
+        <v>5750</v>
       </c>
       <c r="C239" s="4">
         <v>234</v>
       </c>
       <c r="D239" s="4">
-        <v>2185</v>
+        <v>2233</v>
       </c>
       <c r="E239" s="4">
-        <v>8130</v>
+        <v>8217</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>54825</v>
+        <v>55674</v>
       </c>
       <c r="C240" s="4">
-        <v>2056</v>
+        <v>2069</v>
       </c>
       <c r="D240" s="4">
-        <v>27320</v>
+        <v>27776</v>
       </c>
       <c r="E240" s="4">
-        <v>84201</v>
+        <v>85519</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>515590</v>
+        <v>523850</v>
       </c>
       <c r="C241" s="4">
-        <v>7097</v>
+        <v>7112</v>
       </c>
       <c r="D241" s="4">
-        <v>141644</v>
+        <v>142087</v>
       </c>
       <c r="E241" s="4">
-        <v>664331</v>
+        <v>673049</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>48270</v>
+        <v>48836</v>
       </c>
       <c r="C242" s="4">
-        <v>2570</v>
+        <v>2590</v>
       </c>
       <c r="D242" s="4">
-        <v>10699</v>
+        <v>11720</v>
       </c>
       <c r="E242" s="4">
-        <v>61539</v>
+        <v>63146</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5168,16 +5168,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>2456</v>
+        <v>2488</v>
       </c>
       <c r="C243" s="4">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="D243" s="4">
-        <v>4562</v>
+        <v>4599</v>
       </c>
       <c r="E243" s="4">
-        <v>7526</v>
+        <v>7599</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>151293</v>
+        <v>153215</v>
       </c>
       <c r="C244" s="4">
-        <v>11279</v>
+        <v>11456</v>
       </c>
       <c r="D244" s="4">
-        <v>70096</v>
+        <v>71859</v>
       </c>
       <c r="E244" s="4">
-        <v>232668</v>
+        <v>236530</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>17827</v>
+        <v>18195</v>
       </c>
       <c r="C245" s="4">
         <v>819</v>
       </c>
       <c r="D245" s="4">
-        <v>26809</v>
+        <v>27564</v>
       </c>
       <c r="E245" s="4">
-        <v>45455</v>
+        <v>46578</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>46623</v>
+        <v>46993</v>
       </c>
       <c r="C246" s="4">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D246" s="4">
-        <v>8477</v>
+        <v>8548</v>
       </c>
       <c r="E246" s="4">
-        <v>55337</v>
+        <v>55780</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>791274</v>
+        <v>808097</v>
       </c>
       <c r="C247" s="4">
-        <v>35185</v>
+        <v>36156</v>
       </c>
       <c r="D247" s="4">
-        <v>200409</v>
+        <v>204302</v>
       </c>
       <c r="E247" s="4">
-        <v>1026868</v>
+        <v>1048555</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>53095</v>
+        <v>53443</v>
       </c>
       <c r="C248" s="4">
-        <v>1560</v>
+        <v>1575</v>
       </c>
       <c r="D248" s="4">
-        <v>20308</v>
+        <v>20620</v>
       </c>
       <c r="E248" s="4">
-        <v>74963</v>
+        <v>75638</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5270,16 +5270,16 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>1736</v>
+        <v>1752</v>
       </c>
       <c r="C249" s="4">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D249" s="4">
-        <v>715</v>
+        <v>740</v>
       </c>
       <c r="E249" s="4">
-        <v>2524</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>72713</v>
+        <v>73704</v>
       </c>
       <c r="C250" s="4">
-        <v>3989</v>
+        <v>4024</v>
       </c>
       <c r="D250" s="4">
-        <v>15977</v>
+        <v>16246</v>
       </c>
       <c r="E250" s="4">
-        <v>92679</v>
+        <v>93974</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>28875</v>
+        <v>29159</v>
       </c>
       <c r="C251" s="4">
-        <v>2359</v>
+        <v>2372</v>
       </c>
       <c r="D251" s="4">
-        <v>17212</v>
+        <v>17723</v>
       </c>
       <c r="E251" s="4">
-        <v>48446</v>
+        <v>49254</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5321,16 +5321,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>2913</v>
+        <v>2938</v>
       </c>
       <c r="C252" s="4">
         <v>172</v>
       </c>
       <c r="D252" s="4">
-        <v>1932</v>
+        <v>2003</v>
       </c>
       <c r="E252" s="4">
-        <v>5017</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,16 +5338,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>10756</v>
+        <v>10862</v>
       </c>
       <c r="C253" s="4">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="D253" s="4">
-        <v>5683</v>
+        <v>5780</v>
       </c>
       <c r="E253" s="4">
-        <v>17133</v>
+        <v>17340</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>18416</v>
+        <v>18451</v>
       </c>
       <c r="C254" s="4">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D254" s="4">
-        <v>17808</v>
+        <v>17873</v>
       </c>
       <c r="E254" s="4">
-        <v>36384</v>
+        <v>36487</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>12941</v>
+        <v>13297</v>
       </c>
       <c r="C255" s="4">
         <v>271</v>
       </c>
       <c r="D255" s="4">
-        <v>2690</v>
+        <v>2774</v>
       </c>
       <c r="E255" s="4">
-        <v>15902</v>
+        <v>16342</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>269798</v>
+        <v>279646</v>
       </c>
       <c r="C256" s="4">
-        <v>14405</v>
+        <v>14411</v>
       </c>
       <c r="D256" s="4">
-        <v>16335</v>
+        <v>16634</v>
       </c>
       <c r="E256" s="4">
-        <v>300538</v>
+        <v>310691</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>38884870</v>
+        <v>39458733</v>
       </c>
       <c r="C257" s="4">
-        <v>1715492</v>
+        <v>1730166</v>
       </c>
       <c r="D257" s="4">
-        <v>9960561</v>
+        <v>10155257</v>
       </c>
       <c r="E257" s="4">
-        <v>50560923</v>
+        <v>51344156</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
